--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -530,12 +530,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[ 0. -0.]</t>
+          <t>[-0.  0.]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.306, 0.322]</t>
+          <t>[0.513, 0.226]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -544,22 +544,22 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.506</v>
+        <v>0.926</v>
       </c>
       <c r="K2" t="n">
         <v>20</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-304.194, -13762950.425]</t>
+          <t>[973.175, 444.731]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>249.786</v>
+        <v>296.133</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.99e+00</t>
+          <t>4.10e+00</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -591,36 +591,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[ 0.032  0.984 -0.003  0.015  0.013]</t>
+          <t>[-0.002  0.011  0.006 -0.014 -0.007]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[1.031, 0.888, 0.753, 0.683, 0.882]</t>
+          <t>[0.647, 0.778, 0.985, 0.822, 0.868]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.30e+00</t>
+          <t>8.20e-02</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1.82</v>
+        <v>2.091</v>
       </c>
       <c r="K3" t="n">
         <v>20</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[-689.554, -446.477, 1496.823, 151.078, -1854.188]</t>
+          <t>[101060.238, -782.896, -656.098, -1516.294, 587.578]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>46.309</v>
+        <v>59.858</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7.11e+00</t>
+          <t>1.01e+01</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -652,36 +652,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.007  0.003 -1.996 -0.99   0.93   0.014  0.917 -0.988 -0.004 -0.046]</t>
+          <t>[-1.005  0.039 -0.047 -0.062  0.011 -0.068 -1.021  1.028 -0.128 -0.966]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0.893, 0.943, 0.963, 0.978, 0.695, 0.927, 1.069, 1.014, 0.743, 1.122]</t>
+          <t>[1.108, 0.725, 0.926, 1.144, 0.854, 0.967, 0.995, 1.045, 0.831, 0.93]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.04e+01</t>
+          <t>9.99e+00</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3.231</v>
+        <v>5.611</v>
       </c>
       <c r="K4" t="n">
         <v>20</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[-1771.415, 1005.899, -449.383, 335.241, 275.71, 409.905, 609.372, -2633.458, 378.543, -734.775]</t>
+          <t>[371.66, 96208.548, -1346.68, -342.121, 841.309, 124074.77, 2466.038, -4278.758, -2435.407, -617.51]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20.526</v>
+        <v>31.887</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.20e+01</t>
+          <t>3.00e+01</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.42, 0.465]</t>
+          <t>[0.205, 0.309]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.478</v>
+        <v>0.122</v>
       </c>
       <c r="K5" t="n">
         <v>20</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[46.066, 46.87]</t>
+          <t>[22.491, 35.365]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>236.468</v>
+        <v>221.688</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.88e+00</t>
+          <t>4.73e-01</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -774,36 +774,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[1.017 0.989 0.878 0.763 0.606]</t>
+          <t>[0.957 0.936 0.905 0.789 0.622]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[1.032, 0.721, 1.032, 1.552, 5.675]</t>
+          <t>[0.772, 0.67, 0.996, 1.475, 3.274]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.34e+00</t>
+          <t>2.75e-01</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>358.729</v>
+        <v>2017.893</v>
       </c>
       <c r="K6" t="n">
         <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[-958.083, 110.561, 271.51, 169.663, 190.926]</t>
+          <t>[-189.749, 216.305, 513.378, 312.299, 183.711]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>161.864</v>
+        <v>330.389</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1.45e+03</t>
+          <t>9.33e+03</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -835,36 +835,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[ 0.856  0.177 -0.585  0.208 -0.047 -1.519  1.412  0.668  0.748  1.468]</t>
+          <t>[-0.918  1.567  0.453 -1.205  1.295  1.051  0.09   1.112  0.439 -2.762]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[1.68, 2.052, 1.978, 1.404, 1.511, 1.602, 1.672, 1.995, 1.443, 4.332]</t>
+          <t>[1.56, 2.012, 1.847, 1.738, 1.47, 1.794, 1.969, 1.731, 1.893, 4.766]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.63e+02</t>
+          <t>1.87e+03</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>37502.35</v>
+        <v>27765.287</v>
       </c>
       <c r="K7" t="n">
         <v>20</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[-804.178, 1470.164, 13892.706, 1213.897, 265.591, 164.507, 1285.918, -1592.814, 272.903, 452.877]</t>
+          <t>[-4187.527, 858.629, 208.874, 316.746, -524.22, -863.033, -740.102, 454.58, 406.003, -311.708]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>149.505</v>
+        <v>113.123</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1.29e+05</t>
+          <t>9.47e+04</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[20. 20.]</t>
+          <t>[-0.  0.]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8.00e+02</t>
+          <t>0.00e+00</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -917,15 +917,15 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[340.552, 805.621]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>278.277</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.00e+02</t>
+          <t>0.00e+00</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -957,36 +957,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[20. 20. 20. 20. 20.]</t>
+          <t>[ 0.063 -0.017  0.06  -0.04  -0.002]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.599, 0.595, 0.625, 0.757, 1.012]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.00e+03</t>
+          <t>9.00e-03</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.433</v>
       </c>
       <c r="K9" t="n">
         <v>20</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[-1951.119, 262.433, -2116.246, 68938.145, 540.601]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>129.372</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2.00e+03</t>
+          <t>1.44e+01</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -1018,36 +1018,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[20. 20. 20. 20. 20. 20. 20. 20. 20. 20.]</t>
+          <t>[ 0.276  0.481  1.012 -1.017  0.867 -0.263  0.557 -0.54   0.37  -0.934]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[1.925, 1.946, 1.909, 1.443, 1.949, 1.325, 1.456, 1.567, 1.268, 1.885]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.00e+03</t>
+          <t>4.80e+00</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.609</v>
       </c>
       <c r="K10" t="n">
         <v>20</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[-44726.514, -495.257, -3702.594, -179.266, 825.73, 1012.145, -568.431, -1159.651, -347.52, 372.715]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>51.38</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4.00e+03</t>
+          <t>5.51e+01</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.151, 0.047]</t>
+          <t>[0.412, 0.117]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1093,22 +1093,22 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.023</v>
+        <v>0.102</v>
       </c>
       <c r="K11" t="n">
         <v>20</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[5.13, 9.622]</t>
+          <t>[13.513, 23.842]</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>316.568</v>
+        <v>303.908</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9.80e-02</t>
+          <t>4.66e-01</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>312.525</v>
+        <v>409.136</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1201,36 +1201,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[-10.8     1.166]</t>
+          <t>[-9.521  0.907]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[2.956, 0.635]</t>
+          <t>[3.682, 0.588]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.00e-03</t>
+          <t>5.00e-03</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
         <v>20</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[-28.47, 54.721]</t>
+          <t>[-42.403, 66.642]</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>76.64</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.00e-01</t>
+          <t>1.20e-01</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[-10.019   1.004]</t>
+          <t>[-9.882  0.976]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[2.569, 0.548]</t>
+          <t>[1.984, 0.396]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6.00e-03</t>
+          <t>2.00e-03</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="K14" t="n">
         <v>20</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[-24.895, 48.564]</t>
+          <t>[-21.026, 42.735]</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>59.871</v>
+        <v>55.926</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5.50e-02</t>
+          <t>3.90e-02</t>
         </is>
       </c>
       <c r="O14" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[2.37, 2.199]</t>
+          <t>[2.218, 1.965]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>20</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[102.419, 712.727]</t>
+          <t>[96.234, 193.565]</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>271.322</v>
+        <v>235.233</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.00e-03</t>
+          <t>1.00e-03</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[3.177, 2.473]</t>
+          <t>[2.938, 2.066]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[328.176, 524.183]</t>
+          <t>[240.913, 157.358]</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>226.549</v>
+        <v>365.208</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
